--- a/123.xlsx
+++ b/123.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DVA\Downloads\site (3)\site\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d1bbf298c8841889/Desktop/1/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="100" documentId="11_3E73DE80C1F73E3AB17E3DBA5388A2FF2CC4423F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F95877D9-C1AC-4055-8199-19076C05E51A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17700" windowHeight="10725" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Жизненные принципы" sheetId="1" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="174">
   <si>
     <t>Вопрос</t>
   </si>
@@ -64,9 +65,6 @@
     <t>Компьютерные игры</t>
   </si>
   <si>
-    <t>Азартные игры (казино, игровые автоматы, карточные игры, ставки на спорт и др. ставки)</t>
-  </si>
-  <si>
     <t>Количество выделяемого времени на игры (как долго)</t>
   </si>
   <si>
@@ -76,45 +74,6 @@
     <t>Питание для детей</t>
   </si>
   <si>
-    <t>Занимаетесь спортом?</t>
-  </si>
-  <si>
-    <t>Бег</t>
-  </si>
-  <si>
-    <t>Плаванье</t>
-  </si>
-  <si>
-    <t>Лыжи</t>
-  </si>
-  <si>
-    <t>Велосипед</t>
-  </si>
-  <si>
-    <t>Бокс</t>
-  </si>
-  <si>
-    <t>Борьба</t>
-  </si>
-  <si>
-    <t>Карате</t>
-  </si>
-  <si>
-    <t>Скандинавская ходьба</t>
-  </si>
-  <si>
-    <t>Туризм</t>
-  </si>
-  <si>
-    <t>Спортивное ориентирование</t>
-  </si>
-  <si>
-    <t>фехтование</t>
-  </si>
-  <si>
-    <t>Какой религии/вере придерживаетесь вы</t>
-  </si>
-  <si>
     <t>Глубоко верующий (соблюдение всех канонов, частое посещение молитвенных мест, храмов, капищ и т. д.)</t>
   </si>
   <si>
@@ -130,27 +89,12 @@
     <t>Общие дети (хотел(а) бы)</t>
   </si>
   <si>
-    <t>Если да</t>
-  </si>
-  <si>
-    <t>Если по медицинским показаниям супруг(а)не сможет иметь детей, готов(а) ли к усыновлению</t>
-  </si>
-  <si>
-    <t>Возможна ли жизнь без детей если супруг/супруга не может их иметь по медицинским показаниям( без усыновления)</t>
-  </si>
-  <si>
     <t>Наличие детей у вас от предыдущего/их брака/браков</t>
   </si>
   <si>
-    <t>Будут ли общие дети, если они уже есть от предыдущих браков</t>
-  </si>
-  <si>
     <t>Важна ли официальная регистрация брака для вас в построении семейных отношений</t>
   </si>
   <si>
-    <t>Готов/а только к совместному сожительству</t>
-  </si>
-  <si>
     <t>Ответ</t>
   </si>
   <si>
@@ -184,102 +128,6 @@
     <t>Кто будет сидеть в декрете, проявлять любовь и заботу к детям</t>
   </si>
   <si>
-    <t>выносить мусор</t>
-  </si>
-  <si>
-    <t>собирать мусор для выноса и ставить у выхода</t>
-  </si>
-  <si>
-    <t>мыть посуду</t>
-  </si>
-  <si>
-    <t>мыть посуду на выходных</t>
-  </si>
-  <si>
-    <t>убирать со стола</t>
-  </si>
-  <si>
-    <t>накрывать на стол</t>
-  </si>
-  <si>
-    <t>готовить</t>
-  </si>
-  <si>
-    <t>готовить на выходных</t>
-  </si>
-  <si>
-    <t>убирать</t>
-  </si>
-  <si>
-    <t>пылесосить</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> стирать</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> гладить</t>
-  </si>
-  <si>
-    <t>гладить вещи мужа</t>
-  </si>
-  <si>
-    <t>стирать вещи мужа</t>
-  </si>
-  <si>
-    <t>составлять список на покупки в магазинах</t>
-  </si>
-  <si>
-    <t>вытирать пыль в квартире/доме</t>
-  </si>
-  <si>
-    <t>на приусадебном участке:</t>
-  </si>
-  <si>
-    <t>грести листья</t>
-  </si>
-  <si>
-    <t>полоть</t>
-  </si>
-  <si>
-    <t>тяпать</t>
-  </si>
-  <si>
-    <t>покупать продукты</t>
-  </si>
-  <si>
-    <t>нести пакеты из магазина</t>
-  </si>
-  <si>
-    <t>шиномонтаж автомобиля мужа</t>
-  </si>
-  <si>
-    <t>шиномонтаж автомобиля жены</t>
-  </si>
-  <si>
-    <t>мойка автомобиля мужа</t>
-  </si>
-  <si>
-    <t>мойка автомобиля жены</t>
-  </si>
-  <si>
-    <t>копать</t>
-  </si>
-  <si>
-    <t>сжигать листву, траву</t>
-  </si>
-  <si>
-    <t>выкорчёвывать корни деревьев</t>
-  </si>
-  <si>
-    <t>установка парников</t>
-  </si>
-  <si>
-    <t>косить траву</t>
-  </si>
-  <si>
-    <t>Очень обеспечен, и семья будет обеспечена роскошью</t>
-  </si>
-  <si>
     <t>Хорошо зарабатываю (достаточно средств, для того, чтобы содержать семью)</t>
   </si>
   <si>
@@ -313,12 +161,6 @@
     <t>К карьерному росту может не стремиться</t>
   </si>
   <si>
-    <t>Я военнослужащий, но генералом не стану</t>
-  </si>
-  <si>
-    <t>работать не будет, будет заниматься домом и семьёй</t>
-  </si>
-  <si>
     <t>Командировочная активность</t>
   </si>
   <si>
@@ -343,9 +185,6 @@
     <t>Ваш сексуальный опыт</t>
   </si>
   <si>
-    <t>Ваша половая конституция</t>
-  </si>
-  <si>
     <t>Соотношение длины ног к общему росту</t>
   </si>
   <si>
@@ -385,12 +224,6 @@
     <t>Во время беременности муж не должен принуждать жену к сексу</t>
   </si>
   <si>
-    <t>Возьмёте эту роль на себя,а партнёр должен будет активно участвовать во всех ваших экспериментах</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> возьму эту роль на себя, но давить не буду. Раскрываться будем постепенно, по мере прогресса нашей близости</t>
-  </si>
-  <si>
     <t>Лучше, чтобы это был/а</t>
   </si>
   <si>
@@ -445,9 +278,6 @@
     <t>Секс на пляже</t>
   </si>
   <si>
-    <t>Секс в машине</t>
-  </si>
-  <si>
     <t>Лёгкие садистские проявления (похлопывания, лёгкие удары плёткой, удушение и т.д.)</t>
   </si>
   <si>
@@ -463,9 +293,6 @@
     <t>Для мужчины секс втроём (Он+жена+девушка)</t>
   </si>
   <si>
-    <t>Для мужчины секс втроём (Он+жена+друг)</t>
-  </si>
-  <si>
     <t>Для женщины секс втроём (Она+муж+девушка)</t>
   </si>
   <si>
@@ -475,18 +302,6 @@
     <t>Совместные походы в свинг клуб</t>
   </si>
   <si>
-    <t>Для мужчины. Наблюдать как жена целуется с кем-то другим</t>
-  </si>
-  <si>
-    <t>Для мужчины. Наблюдать как жена занимается сексом с кем-то другим</t>
-  </si>
-  <si>
-    <t>Для женщины. Наблюдать как муж целуется с другой женщиной</t>
-  </si>
-  <si>
-    <t>Для женщины. Наблюдать как муж занимается сексом с другой женщиной</t>
-  </si>
-  <si>
     <t>Как часто будете ходить в отпуск</t>
   </si>
   <si>
@@ -508,9 +323,6 @@
     <t>Представьте гипотетическую ситуацию. Если ваш 7-и летний сын разобьёт окно в доме соседей, кто будет отвечать перед соседями за содеяное</t>
   </si>
   <si>
-    <t>Представьте гипотетическую ситуацию. Вас с женой пригласили на вечеринку. Вы едете на неё с работы и опаздывает, а жена едет из дома и приезжает вовремя. Вы заходите на вечеринку и перед вами разворачивается следующая картина: ваша жена буянит, ведёт  себя неадекватно, со всеми ругаться, лезет в драку с мужиками, старается плюнуть им в лицо. Вы быстро оцениваете ситуацию и понимаете, что ваша жена целиком и полностью НЕ права.</t>
-  </si>
-  <si>
     <t>Представьте гипотетическую ситуацию. Вашего мужа уволили с работы, он расстроен и подавлен. Разочаровался в себе и в окружающих</t>
   </si>
   <si>
@@ -526,45 +338,18 @@
     <t>Время на это не выделяю (в компьютерную игру могу попробовать поиграть, на этом всё); 1 час; 2 часа; 3 часа и более</t>
   </si>
   <si>
-    <t>Обычное (с прилавков ТЦ). По питанию вообще не заморачиваюсь; Преимущественно здоровое. С прилавков ТЦ, ищу продукты без ГМО, пальмового масла. Что-то покупаю у частников (масло сыр, мясо, молоко…); Вегетарианец, веган; Только здоровая пища (Без ГМО, пальмового масла, продукция частников (масло сыр, мясо, молоко….)); Не имеет значения (будут подстраиваться под супруга/супругу)</t>
-  </si>
-  <si>
-    <t>Обычное (с прилавков ТЦ). По питанию вообще не заморачиваться не будут; Преимущественно здоровая. С прилавков ТЦ, ищу продукты без ГМО, пальмового масла. Что-то покупаю у частников (масло сыр, мясо, молоко…);  Вегетарианец, веган; Только здоровая пища (Без ГМО, пальмового масла, продукция частников (масло сыр, мясо, молоко….)); Не имеет значения (будут подстраиваться под супруга/супругу)</t>
-  </si>
-  <si>
-    <t>профессиональный спортсмен (занятия каждый день); 2-3 раза в неделю; 1 раз в неделю; 1-2 раза в месяц</t>
-  </si>
-  <si>
-    <t>Христианство; Мусульманство; Ислам; Иудаизм; Буддизм; Индуизм; Атеизм; Ведизм; Родноверие</t>
-  </si>
-  <si>
     <t xml:space="preserve">Христианство; Мусульманство; Ислам; Иудаизм; Буддизм; Атеизм; Ведизм;  Родноверие; Без разницы,какую религию(веру) из отмеченного выберет супруга/супруг для детей; Дети вырастут и сами выберут себе веру/религию </t>
   </si>
   <si>
-    <t>Нет; 1; 2; 3; 4; 5 и более</t>
-  </si>
-  <si>
-    <t>Да; нет; затрудняюсь ответить</t>
-  </si>
-  <si>
     <t>Нет; 1; 2; 3; 4 и более</t>
   </si>
   <si>
-    <t>Обязательно; Категорически нет; Для меня не имеет значения, как супруг/супруга захочет</t>
-  </si>
-  <si>
     <t>В моём частном доме/коттедже; В её/его частном доме/коттедже; В моей собственной квартире; Когда женюсь/выйду замуж возьму квартиру в ипотеку; Возьмёте ипотеку на двоих и вместе будете за неё выплачивать кредит; В съёмной квартире; Будем жить с родителями; Каждый будет жить в своей жилплощади</t>
   </si>
   <si>
     <t>Муж; Жена; Оба:50X50; Никто/никому</t>
   </si>
   <si>
-    <t>муж; жена</t>
-  </si>
-  <si>
-    <t>для мужа; для жены; не приемлемо</t>
-  </si>
-  <si>
     <t>Редко: 1-3 дня в месяц; Две недели в отъезде, одна-дома; Очень часто( вахтовик, моряк и т.д.); Менять ничего не буду; Очень часто( вахтовик, моряк и т.д.), но когда женюсь/выйду замуж сразу сокращю командировки до минимума; Военослужащий/ая(есть командировки, полевые учения, возможны частые переезды по территории России)</t>
   </si>
   <si>
@@ -638,12 +423,147 @@
   </si>
   <si>
     <t>Когда возможно появление общих детей</t>
+  </si>
+  <si>
+    <t>Занимаетесь спортом (если да, то каким)?</t>
+  </si>
+  <si>
+    <t>Азартные игры (казино, игровые автоматы, карточные игры, ставки на спорт,карточные игры на деньги и др. ставки)</t>
+  </si>
+  <si>
+    <t>Обычное (с прилавков ТЦ). По питанию вообще не заморачиваться не будут; Преимущественно здоровая. С прилавков ТЦ, ищу продукты без ГМО, пальмового масла. Что-то покупаю у частников (масло сыр, мясо, молоко…);  Вегетарианец, веган; Только здоровая пища (Без ГМО, пальмового масла, продукция частников (масло сыр, мясо, молоко….))</t>
+  </si>
+  <si>
+    <t>Обычное (с прилавков ТЦ). По питанию вообще не заморачиваюсь; Преимущественно здоровое. С прилавков ТЦ, ищу продукты без ГМО, пальмового масла. Что-то покупаю у частников (масло сыр, мясо, молоко…); Вегетарианец, веган; Только здоровая пища (Без ГМО, пальмового масла, продукция частников (масло сыр, мясо, молоко….))</t>
+  </si>
+  <si>
+    <t>Да; нет</t>
+  </si>
+  <si>
+    <t>Кто будет выносить мусор?</t>
+  </si>
+  <si>
+    <t>Кто будет собирать мусор для выноса и ставить у выхода?</t>
+  </si>
+  <si>
+    <t>Кто будет мыть посуду?</t>
+  </si>
+  <si>
+    <t>Кто будет мыть посуду на выходных?</t>
+  </si>
+  <si>
+    <t>Кто будет убирать со стола?</t>
+  </si>
+  <si>
+    <t>Кто будет накрывать на стол?</t>
+  </si>
+  <si>
+    <t>Кто будет готовить?</t>
+  </si>
+  <si>
+    <t>Кто будет готовить на выходных?</t>
+  </si>
+  <si>
+    <t>Кто будет убирать?</t>
+  </si>
+  <si>
+    <t>Кто будет пылесосить?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кто будет стирать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кто будет гладить?</t>
+  </si>
+  <si>
+    <t>Кто будет гладить вещи мужа?</t>
+  </si>
+  <si>
+    <t>Кто будет стирать вещи мужа?</t>
+  </si>
+  <si>
+    <t>Кто будет составлять список на покупки в магазинах?</t>
+  </si>
+  <si>
+    <t>Кто будет вытирать пыль в квартире/доме?</t>
+  </si>
+  <si>
+    <t>Кто будет на приусадебном участке?</t>
+  </si>
+  <si>
+    <t>Кто будет грести листья?</t>
+  </si>
+  <si>
+    <t>Кто будет полоть?</t>
+  </si>
+  <si>
+    <t>Кто будет тяпать?</t>
+  </si>
+  <si>
+    <t>Кто будет покупать продукты?</t>
+  </si>
+  <si>
+    <t>Кто будет нести пакеты из магазина?</t>
+  </si>
+  <si>
+    <t>Кто будет шиномонтаж автомобиля мужа?</t>
+  </si>
+  <si>
+    <t>Кто будет шиномонтаж автомобиля жены?</t>
+  </si>
+  <si>
+    <t>Кто будет мойка автомобиля мужа?</t>
+  </si>
+  <si>
+    <t>Кто будет мойка автомобиля жены?</t>
+  </si>
+  <si>
+    <t>Кто будет копать?</t>
+  </si>
+  <si>
+    <t>Кто будет сжигать листву, траву?</t>
+  </si>
+  <si>
+    <t>Кто будет выкорчёвывать корни деревьев?</t>
+  </si>
+  <si>
+    <t>Кто будет установка парников?</t>
+  </si>
+  <si>
+    <t>Кто будет косить траву?</t>
+  </si>
+  <si>
+    <t>Вы очень обеспечены и семья будет обеспечена роскошью</t>
+  </si>
+  <si>
+    <t xml:space="preserve">муж; жена;не применимо </t>
+  </si>
+  <si>
+    <t>да; нет (на муже);нет (на жене)</t>
+  </si>
+  <si>
+    <t>для мужа; для жены; для обоих</t>
+  </si>
+  <si>
+    <t>муж; жена;не приемлемо</t>
+  </si>
+  <si>
+    <t>Может не работать, будет заниматься домом и семьёй</t>
+  </si>
+  <si>
+    <t>Ваша желаемая потребность в сексе</t>
+  </si>
+  <si>
+    <t>Ваше отношение к сексу втроём в семейной жизни</t>
+  </si>
+  <si>
+    <t>Представьте гипотетическую ситуацию. Вас с женой пригласили на вечеринку. Вы едете на неё с работы и опаздывает, а жена едет из дома и приезжает вовремя. Вы заходите на вечеринку и перед вами разворачивается следующая картина: ваша жена буянит, ведёт  себя неадекватно, со всеми ругаться, лезет в драку с мужиками, старается плюнуть им в лицо. Вы быстро оцениваете ситуацию и понимаете, что ваша жена целиком и полностью НЕ права.Ваши действия?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -801,88 +721,88 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:B37" totalsRowShown="0">
-  <autoFilter ref="A1:B37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:B20" totalsRowShown="0">
+  <autoFilter ref="A1:B20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Вопрос"/>
-    <tableColumn id="2" name="Ответы"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Вопрос"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ответы"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица2" displayName="Таблица2" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Вопрос"/>
-    <tableColumn id="2" name="Ответ"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Вопрос"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Ответ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:B44" totalsRowShown="0">
-  <autoFilter ref="A1:B44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Таблица3" displayName="Таблица3" ref="A1:B44" totalsRowShown="0">
+  <autoFilter ref="A1:B44" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Вопрос"/>
-    <tableColumn id="2" name="Ответ"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Вопрос"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Ответ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:B23" totalsRowShown="0">
-  <autoFilter ref="A1:B23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Таблица4" displayName="Таблица4" ref="A1:B22" totalsRowShown="0">
+  <autoFilter ref="A1:B22" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Вопрос"/>
-    <tableColumn id="2" name="Ответ"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Вопрос"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Ответ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Таблица7" displayName="Таблица7" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Таблица7" displayName="Таблица7" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Вопрос"/>
-    <tableColumn id="2" name="Ответ"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Вопрос"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Ответ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица5" displayName="Таблица5" ref="A1:B51" totalsRowShown="0">
-  <autoFilter ref="A1:B51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Таблица5" displayName="Таблица5" ref="A1:B44" totalsRowShown="0">
+  <autoFilter ref="A1:B44" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Вопрос"/>
-    <tableColumn id="2" name="Ответ"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Вопрос"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Ответ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица6" displayName="Таблица6" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Таблица6" displayName="Таблица6" ref="A1:B4" totalsRowShown="0">
+  <autoFilter ref="A1:B4" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Вопрос"/>
-    <tableColumn id="2" name="Ответ"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Вопрос"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Ответ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Таблица8" displayName="Таблица8" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Таблица8" displayName="Таблица8" ref="A1:B2" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Вопрос"/>
-    <tableColumn id="2" name="Ответ"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Вопрос"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Ответ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1150,20 +1070,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="4" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="55" customWidth="1"/>
+    <col min="2" max="4" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1171,292 +1091,153 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="B20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1469,32 +1250,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="2" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1506,361 +1287,361 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="B35" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="B36" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1872,195 +1653,187 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="B11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>93</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>94</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
         <v>96</v>
       </c>
-      <c r="B18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2072,33 +1845,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2114,12 +1887,12 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -2132,12 +1905,12 @@
       <c r="N2" s="8"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2150,7 +1923,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -2162,7 +1935,7 @@
       <c r="N4" s="9"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -2174,7 +1947,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -2186,7 +1959,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="19"/>
       <c r="D7" s="10"/>
@@ -2202,7 +1975,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
@@ -2218,7 +1991,7 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
@@ -2234,7 +2007,7 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -2250,7 +2023,7 @@
       <c r="N10" s="9"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="9"/>
@@ -2265,7 +2038,7 @@
       <c r="N11" s="9"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="9"/>
@@ -2280,7 +2053,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="9"/>
@@ -2295,7 +2068,7 @@
       <c r="N13" s="8"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="9"/>
@@ -2310,7 +2083,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="9"/>
@@ -2325,7 +2098,7 @@
       <c r="N15" s="8"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C16" s="19"/>
       <c r="D16" s="10"/>
       <c r="E16" s="9"/>
@@ -2340,7 +2113,7 @@
       <c r="N16" s="8"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -2355,7 +2128,7 @@
       <c r="N17" s="8"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -2370,7 +2143,7 @@
       <c r="N18" s="8"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -2385,7 +2158,7 @@
       <c r="N19" s="8"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -2400,20 +2173,20 @@
       <c r="N20" s="8"/>
       <c r="O20" s="6"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="6"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -2436,426 +2209,379 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
         <v>116</v>
       </c>
-      <c r="B18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
         <v>117</v>
       </c>
-      <c r="B19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="B41" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B46" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B47" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B48" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B49" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B51" t="s">
-        <v>189</v>
-      </c>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2866,48 +2592,48 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="2" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2919,49 +2645,49 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="8" max="9" width="11.85546875" customWidth="1"/>
+    <col min="8" max="9" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -2969,7 +2695,7 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -2977,7 +2703,7 @@
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -2985,7 +2711,7 @@
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -2993,7 +2719,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3001,7 +2727,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -3009,7 +2735,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -3026,35 +2752,35 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1"/>
+    <col min="12" max="12" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -3067,12 +2793,12 @@
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -3085,12 +2811,12 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -3103,12 +2829,12 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -3121,7 +2847,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -3133,7 +2859,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -3145,7 +2871,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -3157,7 +2883,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -3169,7 +2895,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -3183,7 +2909,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>

--- a/123.xlsx
+++ b/123.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="100" documentId="11_3E73DE80C1F73E3AB17E3DBA5388A2FF2CC4423F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F95877D9-C1AC-4055-8199-19076C05E51A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Жизненные принципы" sheetId="1" r:id="rId1"/>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1115,7 +1115,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>130</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2755,7 +2755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/123.xlsx
+++ b/123.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d1bbf298c8841889/Desktop/1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="11_3E73DE80C1F73E3AB17E3DBA5388A2FF2CC4423F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F95877D9-C1AC-4055-8199-19076C05E51A}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="11_3E73DE80C1F73E3AB17E3DBA5388A2FF2CC4423F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA17978C-FE11-496D-B373-8504B111EF60}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1176" yWindow="1248" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Жизненные принципы" sheetId="1" r:id="rId1"/>
@@ -732,8 +732,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица2" displayName="Таблица2" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица2" displayName="Таблица2" ref="A1:B2" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Вопрос"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Ответ"/>
@@ -743,8 +743,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Таблица3" displayName="Таблица3" ref="A1:B44" totalsRowShown="0">
-  <autoFilter ref="A1:B44" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Таблица3" displayName="Таблица3" ref="A1:B43" totalsRowShown="0">
+  <autoFilter ref="A1:B43" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Вопрос"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Ответ"/>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1254,7 +1254,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1291,7 +1291,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1656,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2213,7 +2213,7 @@
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2596,7 +2596,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2648,8 +2648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
